--- a/EzeeShip/productData/Data/Source/LabelAndRateMsq.xlsx
+++ b/EzeeShip/productData/Data/Source/LabelAndRateMsq.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="86">
   <si>
     <t>#No</t>
   </si>
@@ -122,71 +122,74 @@
     <t>Carrier's interface abnormal. Please try it later.</t>
   </si>
   <si>
+    <t>承运商接口异常，请稍后再试。从事test</t>
+  </si>
+  <si>
+    <t>Request exception ! [com.ctc.wstx.exc.WstxLazyException] Attemptedread on closed stream.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Carrier's interface abnormal. Please </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>contact Customer Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> for support.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>承运商接口异常，请</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>联系客服</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以获取支持。</t>
+    </r>
+  </si>
+  <si>
+    <t>Request exception ! Connection reset</t>
+  </si>
+  <si>
     <t>承运商接口异常，请稍后再试。</t>
-  </si>
-  <si>
-    <t>Request exception ! [com.ctc.wstx.exc.WstxLazyException] Attemptedread on closed stream.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Carrier's interface abnormal. Please </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>contact Customer Service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> for support.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>承运商接口异常，请</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>联系客服</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以获取支持。</t>
-    </r>
-  </si>
-  <si>
-    <t>Request exception ! Connection reset</t>
   </si>
   <si>
     <t>Request exception ! {\"errors\":[\"Background image height is too small.\"]}</t>
@@ -538,6 +541,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -703,12 +712,6 @@
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1068,10 +1071,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1080,137 +1083,137 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1226,19 +1229,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1578,8 +1584,8 @@
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1627,7 +1633,7 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1656,7 +1662,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:4">
@@ -1664,13 +1670,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" ht="39" spans="1:4">
@@ -1678,13 +1684,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="26.25" spans="1:4">
@@ -1692,13 +1698,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="15" spans="1:4">
@@ -1706,13 +1712,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:4">
@@ -1720,13 +1726,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="5" t="s">
         <v>28</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="26.25" spans="1:4">
@@ -1734,13 +1740,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="39" spans="1:4">
@@ -1748,13 +1754,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="77.25" spans="1:4">
@@ -1762,13 +1768,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" ht="77.25" spans="1:4">
@@ -1776,13 +1782,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" ht="77.25" spans="1:4">
@@ -1790,13 +1796,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="5" t="s">
         <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" ht="77.25" spans="1:4">
@@ -1804,13 +1810,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="5" t="s">
         <v>37</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" ht="15" spans="1:4">
@@ -1818,7 +1824,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
@@ -1832,13 +1838,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" ht="15" spans="1:4">
@@ -1846,13 +1852,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" ht="26.25" spans="1:4">
@@ -1860,13 +1866,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" ht="26.25" spans="1:4">
@@ -1874,13 +1880,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="5" t="s">
         <v>53</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22" ht="15" spans="1:4">
@@ -1888,13 +1894,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="15" spans="1:4">
@@ -1902,13 +1908,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>9</v>
+      <c r="D23" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" ht="26.25" spans="1:4">
@@ -1916,13 +1922,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" ht="26.25" spans="1:4">
@@ -1930,13 +1936,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:4">
@@ -1944,13 +1950,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" ht="26.25" spans="1:4">
@@ -1958,13 +1964,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="5" t="s">
         <v>65</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" ht="26.25" spans="1:4">
@@ -1972,13 +1978,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:4">
@@ -1986,13 +1992,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="C29" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="D29" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:4">
@@ -2000,13 +2006,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="8" t="s">
         <v>72</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="31" ht="15" spans="1:4">
@@ -2014,13 +2020,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="8" t="s">
         <v>75</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" ht="15" spans="1:4">
@@ -2028,13 +2034,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="8" t="s">
         <v>78</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="33" ht="15" spans="1:4">
@@ -2042,13 +2048,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="C33" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="D33" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" ht="15" spans="1:4">
@@ -2056,19 +2062,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="8" t="s">
         <v>83</v>
       </c>
+      <c r="C34" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="D34" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
